--- a/OnBoard/output/trust/bio/Bio_Trust_54.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_54.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>106</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +529,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>142</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,7 +571,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +581,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +603,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +623,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F5">
@@ -621,11 +636,16 @@
         <v>230</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>102</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +655,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,7 +675,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +685,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>124</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +707,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,7 +727,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F7">
@@ -712,14 +737,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>123</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L7">
@@ -729,7 +759,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,7 +779,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F8">
@@ -759,14 +789,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L8">
@@ -776,7 +811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,7 +831,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +841,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>88</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +863,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +883,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F10">
@@ -853,19 +893,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L10">
@@ -875,7 +915,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -895,7 +935,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F11">
@@ -905,19 +945,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="I11">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L11">
@@ -927,7 +967,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -957,19 +997,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I12">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L12">
@@ -979,7 +1019,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1009,19 +1049,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="I13">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L13">
@@ -1031,7 +1071,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1061,19 +1101,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="I14">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L14">
@@ -1083,7 +1123,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1113,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="I15">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1125,7 +1165,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L15">
@@ -1135,7 +1175,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1165,19 +1205,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I16">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L16">
@@ -1187,7 +1227,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1217,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I17">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1234,17 +1274,12 @@
       </c>
       <c r="L17">
         <v>0</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1274,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="I18">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1286,7 +1321,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L18">
@@ -1296,7 +1331,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1326,19 +1361,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="I19">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L19">
@@ -1348,7 +1383,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1378,19 +1413,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="I20">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L20">
@@ -1400,7 +1435,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1415,7 +1450,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1430,19 +1465,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I21">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L21">
@@ -1452,7 +1487,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1467,7 +1502,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1482,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="I22">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1494,7 +1529,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L22">
@@ -1504,7 +1539,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1519,7 +1554,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1534,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I23">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1546,7 +1581,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L23">
@@ -1556,7 +1591,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1571,7 +1606,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1586,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I24">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1598,7 +1633,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L24">
@@ -1608,7 +1643,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1623,7 +1658,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1638,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I25">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1650,7 +1685,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L25">
@@ -1660,7 +1695,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1675,7 +1710,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1690,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="I26">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1702,7 +1737,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L26">
@@ -1712,7 +1747,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1727,7 +1762,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1742,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I27">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1764,7 +1799,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1779,7 +1814,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1794,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I28">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1806,7 +1841,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L28">
@@ -1816,7 +1851,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1831,12 +1866,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F29">
@@ -1846,19 +1881,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I29">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L29">
@@ -1868,7 +1903,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1883,12 +1918,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F30">
@@ -1898,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="I30">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1910,7 +1945,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L30">
@@ -1920,7 +1955,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1935,12 +1970,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F31">
@@ -1950,19 +1985,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="I31">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L31">
@@ -1972,7 +2007,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1987,12 +2022,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F32">
@@ -2002,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="I32">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L32">
@@ -2024,7 +2059,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2039,12 +2074,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F33">
@@ -2054,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="I33">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2066,7 +2101,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L33">
@@ -2076,7 +2111,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2091,12 +2126,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F34">
@@ -2106,19 +2141,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L34">
@@ -2128,7 +2163,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2143,12 +2178,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F35">
@@ -2158,19 +2193,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="I35">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L35">
@@ -2180,7 +2215,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2195,12 +2230,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F36">
@@ -2210,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I36">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2232,7 +2267,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2247,12 +2282,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F37">
@@ -2262,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="I37">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2274,7 +2309,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L37">
@@ -2284,7 +2319,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2299,12 +2334,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F38">
@@ -2314,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2326,7 +2361,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L38">
@@ -2336,7 +2371,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2351,12 +2386,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F39">
@@ -2366,19 +2401,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I39">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2388,7 +2423,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2403,12 +2438,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F40">
@@ -2418,19 +2453,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I40">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L40">
@@ -2440,7 +2475,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2455,12 +2490,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F41">
@@ -2470,14 +2505,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="I41">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L41">
@@ -2487,7 +2527,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2502,12 +2542,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F42">
@@ -2517,19 +2557,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I42">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L42">
@@ -2539,7 +2574,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2554,12 +2589,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F43">
@@ -2569,14 +2604,14 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="I43">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L43">
@@ -2586,7 +2621,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2601,12 +2636,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F44">
@@ -2616,14 +2651,14 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="I44">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L44">
@@ -2633,7 +2668,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2648,12 +2683,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F45">
@@ -2663,19 +2698,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L45">
@@ -2685,7 +2715,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2700,12 +2730,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F46">
@@ -2715,14 +2745,14 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="I46">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L46">
@@ -2732,7 +2762,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2747,12 +2777,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F47">
@@ -2762,19 +2792,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I47">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L47">
@@ -2784,7 +2809,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2799,12 +2824,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F48">
@@ -2814,14 +2839,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2831,7 +2856,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2846,12 +2871,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F49">
@@ -2861,19 +2886,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2883,7 +2903,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2898,12 +2918,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F50">
@@ -2913,14 +2933,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I50">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2930,7 +2950,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2945,12 +2965,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F51">
@@ -2960,19 +2980,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2982,7 +2997,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2997,12 +3012,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F52">
@@ -3012,19 +3027,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I52">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
@@ -3034,7 +3044,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3049,12 +3059,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F53">
@@ -3064,14 +3074,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I53">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -3081,7 +3091,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3096,12 +3106,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F54">
@@ -3111,14 +3121,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -3128,7 +3138,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3143,12 +3153,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F55">
@@ -3158,14 +3168,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I55">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L55">
@@ -3175,7 +3185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3190,12 +3200,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F56">
@@ -3205,14 +3215,14 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I56">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L56">
@@ -3222,7 +3232,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3237,12 +3247,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F57">
@@ -3252,14 +3262,14 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I57">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L57">
@@ -3269,7 +3279,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3284,12 +3294,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F58">
@@ -3299,14 +3309,14 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="I58">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L58">
@@ -3316,7 +3326,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3331,12 +3341,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F59">
@@ -3346,14 +3356,14 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="I59">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L59">
@@ -3363,7 +3373,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3378,12 +3388,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F60">
@@ -3393,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I60">
         <v>-1</v>
@@ -3410,7 +3420,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3425,12 +3435,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F61">
@@ -3440,14 +3450,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="I61">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L61">
@@ -3457,7 +3467,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3472,12 +3482,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F62">
@@ -3487,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="I62">
         <v>-1</v>
@@ -3504,7 +3514,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3519,12 +3529,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F63">
@@ -3534,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3551,7 +3561,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3566,12 +3576,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F64">
@@ -3581,14 +3591,14 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I64">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L64">
@@ -3598,7 +3608,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3613,12 +3623,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F65">
@@ -3628,14 +3638,14 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L65">
@@ -3645,7 +3655,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3660,12 +3670,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F66">
@@ -3675,14 +3685,14 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L66">
@@ -3692,7 +3702,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3707,12 +3717,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F67">
@@ -3722,24 +3732,29 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L67">
         <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3754,12 +3769,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F68">
@@ -3769,24 +3784,34 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L68">
         <v>0</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3801,12 +3826,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F69">
@@ -3816,24 +3841,34 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I69">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L69">
         <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3848,12 +3883,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F70">
@@ -3863,14 +3898,14 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L70">
@@ -3880,7 +3915,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3895,12 +3930,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F71">
@@ -3910,14 +3945,14 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L71">
@@ -3927,7 +3962,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3942,12 +3977,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F72">
@@ -3957,14 +3992,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L72">
@@ -3974,7 +4009,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3989,12 +4024,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F73">
@@ -4004,14 +4039,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L73">
@@ -4021,7 +4061,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4036,12 +4076,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F74">
@@ -4051,14 +4091,19 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L74">
@@ -4068,7 +4113,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4083,12 +4128,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F75">
@@ -4098,19 +4143,19 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I75">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>SOSEM-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L75">
@@ -4120,7 +4165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4135,12 +4180,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F76">
@@ -4150,19 +4195,19 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="I76">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L76">
@@ -4172,7 +4217,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4192,7 +4237,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F77">
@@ -4202,19 +4247,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="I77">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L77">
@@ -4224,7 +4269,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4244,7 +4289,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F78">
@@ -4254,19 +4299,19 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="I78">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L78">
@@ -4276,7 +4321,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4296,7 +4341,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F79">
@@ -4306,19 +4351,19 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="I79">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>SOSEM-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L79">
@@ -4328,7 +4373,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4343,12 +4388,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F80">
@@ -4358,14 +4403,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L80">
@@ -4375,7 +4420,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4390,12 +4435,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F81">
@@ -4405,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="I81">
         <v>-1</v>
@@ -4422,7 +4467,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4437,12 +4482,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F82">
@@ -4452,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="I82">
         <v>-1</v>
@@ -4469,7 +4514,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4484,12 +4529,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F83">
@@ -4499,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="I83">
         <v>-1</v>
@@ -4516,7 +4561,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4531,12 +4576,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F84">
@@ -4546,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="I84">
         <v>-1</v>
@@ -4563,7 +4608,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4578,12 +4623,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F85">
@@ -4593,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I85">
         <v>-1</v>
@@ -4610,7 +4655,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4625,12 +4670,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F86">
@@ -4640,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I86">
         <v>-1</v>
@@ -4657,7 +4702,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4672,12 +4717,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F87">
@@ -4687,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="I87">
         <v>-1</v>
@@ -4704,7 +4749,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4719,12 +4764,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F88">
@@ -4734,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I88">
         <v>-1</v>
@@ -4751,7 +4796,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4766,12 +4811,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F89">
@@ -4781,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I89">
         <v>-1</v>
@@ -4798,7 +4843,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4813,12 +4858,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F90">
@@ -4828,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I90">
         <v>-1</v>
@@ -4845,7 +4890,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4860,12 +4905,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F91">
@@ -4875,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I91">
         <v>-1</v>
@@ -4892,7 +4937,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4907,12 +4952,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F92">
@@ -4922,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I92">
         <v>-1</v>
@@ -4939,7 +4984,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4954,12 +4999,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F93">
@@ -4969,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I93">
         <v>-1</v>
@@ -4986,7 +5031,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5001,12 +5046,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CEPOMAC</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F94">
@@ -5016,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>347</v>
+        <v>130</v>
       </c>
       <c r="I94">
         <v>-1</v>
@@ -5033,7 +5078,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5048,12 +5093,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F95">
@@ -5063,19 +5108,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="I95">
-        <v>73</v>
+        <v>-1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L95">
@@ -5085,7 +5125,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5100,12 +5140,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F96">
@@ -5115,19 +5155,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="I96">
-        <v>153</v>
+        <v>-1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L96">
@@ -5137,7 +5172,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5152,12 +5187,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F97">
@@ -5167,19 +5202,14 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="I97">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L97">
@@ -5189,7 +5219,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5204,12 +5234,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F98">
@@ -5219,19 +5249,14 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="I98">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
@@ -5241,7 +5266,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5256,12 +5281,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F99">
@@ -5271,19 +5296,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="I99">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
@@ -5293,7 +5313,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5308,12 +5328,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F100">
@@ -5323,19 +5343,14 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>435</v>
+        <v>145</v>
       </c>
       <c r="I100">
-        <v>511</v>
+        <v>-1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>MEDSE-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L100">
@@ -5345,7 +5360,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5360,12 +5375,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F101">
@@ -5375,19 +5390,14 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>475</v>
+        <v>131</v>
       </c>
       <c r="I101">
-        <v>720</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>MEDSE-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L101">
@@ -5397,7 +5407,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5412,12 +5422,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F102">
@@ -5427,19 +5437,14 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="I102">
-        <v>131</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L102">
@@ -5449,7 +5454,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5464,12 +5469,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F103">
@@ -5479,19 +5484,14 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="I103">
-        <v>136</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L103">
@@ -5501,7 +5501,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5516,12 +5516,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F104">
@@ -5531,19 +5531,14 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="I104">
-        <v>107</v>
+        <v>-1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L104">
@@ -5553,7 +5548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5568,12 +5563,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F105">
@@ -5583,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="I105">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5595,17 +5590,22 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L105">
         <v>0</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F106">
@@ -5635,19 +5635,19 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I106">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L106">
@@ -5657,7 +5657,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F107">
@@ -5687,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="I107">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L107">
@@ -5709,7 +5709,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F108">
@@ -5739,19 +5739,14 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="I108">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L108">
@@ -5761,7 +5756,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5776,12 +5771,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F109">
@@ -5791,19 +5786,14 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="I109">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L109">
@@ -5813,7 +5803,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5828,12 +5818,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F110">
@@ -5843,19 +5833,14 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="I110">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L110">
@@ -5865,7 +5850,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5880,12 +5865,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F111">
@@ -5895,19 +5880,14 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="I111">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L111">
@@ -5917,7 +5897,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5932,12 +5912,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F112">
@@ -5947,19 +5927,14 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="I112">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L112">
@@ -5969,7 +5944,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5984,12 +5959,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F113">
@@ -5999,19 +5974,14 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="I113">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L113">
@@ -6021,7 +5991,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6036,12 +6006,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F114">
@@ -6051,19 +6021,14 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="I114">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L114">
@@ -6073,7 +6038,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6088,12 +6053,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F115">
@@ -6103,19 +6068,14 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="I115">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L115">
@@ -6125,7 +6085,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6140,12 +6100,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F116">
@@ -6155,19 +6115,14 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="I116">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L116">
@@ -6177,7 +6132,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6192,12 +6147,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F117">
@@ -6207,19 +6162,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="I117">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L117">
@@ -6229,7 +6184,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6244,12 +6199,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F118">
@@ -6259,19 +6214,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="I118">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L118">
@@ -6281,7 +6236,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6296,12 +6251,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F119">
@@ -6311,10 +6266,10 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="I119">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -6323,7 +6278,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L119">
@@ -6333,7 +6288,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6348,12 +6303,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F120">
@@ -6363,19 +6318,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I120">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L120">
@@ -6385,7 +6340,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6400,12 +6355,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F121">
@@ -6415,10 +6370,10 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="I121">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6427,7 +6382,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L121">
@@ -6437,7 +6392,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6452,12 +6407,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F122">
@@ -6467,19 +6422,19 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="I122">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L122">
@@ -6489,7 +6444,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6504,12 +6459,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F123">
@@ -6519,14 +6474,19 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="I123">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L123">
@@ -6536,7 +6496,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6551,12 +6511,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F124">
@@ -6566,14 +6526,19 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="I124">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L124">
@@ -6583,7 +6548,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6598,12 +6563,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F125">
@@ -6613,14 +6578,19 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="I125">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L125">
@@ -6630,7 +6600,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6645,12 +6615,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F126">
@@ -6660,14 +6630,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I126">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L126">
@@ -6677,7 +6652,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6692,12 +6667,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F127">
@@ -6707,14 +6682,19 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I127">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L127">
@@ -6724,7 +6704,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6739,12 +6719,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F128">
@@ -6754,14 +6734,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I128">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L128">
@@ -6771,7 +6756,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6791,7 +6776,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F129">
@@ -6801,14 +6786,19 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I129">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L129">
@@ -6818,7 +6808,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6838,7 +6828,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F130">
@@ -6848,14 +6838,19 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I130">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L130">
@@ -6865,7 +6860,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6885,7 +6880,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F131">
@@ -6895,14 +6890,19 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I131">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L131">
@@ -6912,7 +6912,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F132">
@@ -6942,14 +6942,19 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I132">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L132">
@@ -6959,7 +6964,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6979,7 +6984,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F133">
@@ -6989,14 +6994,19 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="I133">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L133">
@@ -7006,7 +7016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7026,7 +7036,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F134">
@@ -7036,14 +7046,19 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I134">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L134">
@@ -7053,7 +7068,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7073,7 +7088,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F135">
@@ -7083,14 +7098,19 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I135">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L135">
@@ -7100,7 +7120,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7120,7 +7140,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F136">
@@ -7130,14 +7150,19 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I136">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L136">
@@ -7147,7 +7172,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7167,7 +7192,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F137">
@@ -7177,14 +7202,19 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I137">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L137">
@@ -7194,7 +7224,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7214,7 +7244,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F138">
@@ -7224,14 +7254,19 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I138">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L138">
@@ -7241,7 +7276,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7261,7 +7296,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F139">
@@ -7271,14 +7306,19 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I139">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L139">
@@ -7288,7 +7328,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7308,7 +7348,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F140">
@@ -7318,14 +7358,19 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I140">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L140">
@@ -7335,7 +7380,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7355,7 +7400,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F141">
@@ -7365,14 +7410,19 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I141">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L141">
@@ -7382,7 +7432,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7402,7 +7452,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F142">
@@ -7412,14 +7462,19 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I142">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L142">
@@ -7429,7 +7484,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7449,7 +7504,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F143">
@@ -7459,14 +7514,19 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I143">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L143">
@@ -7476,7 +7536,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7496,7 +7556,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F144">
@@ -7506,14 +7566,19 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I144">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L144">
@@ -7523,7 +7588,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7543,7 +7608,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F145">
@@ -7553,14 +7618,19 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I145">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L145">
@@ -7570,7 +7640,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7590,7 +7660,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F146">
@@ -7600,14 +7670,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I146">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L146">
@@ -7617,7 +7692,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7637,7 +7712,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F147">
@@ -7647,14 +7722,19 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I147">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L147">
@@ -7664,7 +7744,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7684,7 +7764,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F148">
@@ -7694,14 +7774,19 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="I148">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L148">
@@ -7711,7 +7796,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7731,7 +7816,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F149">
@@ -7741,14 +7826,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="I149">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7758,7 +7848,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7778,7 +7868,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F150">
@@ -7788,14 +7878,19 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="I150">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L150">
@@ -7805,7 +7900,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7825,7 +7920,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F151">
@@ -7835,14 +7930,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I151">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L151">
@@ -7852,7 +7952,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7872,7 +7972,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F152">
@@ -7882,14 +7982,19 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I152">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L152">
@@ -7899,7 +8004,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7919,7 +8024,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F153">
@@ -7929,14 +8034,19 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I153">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L153">
@@ -7946,7 +8056,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7966,7 +8076,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F154">
@@ -7976,14 +8086,19 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I154">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L154">
@@ -7993,7 +8108,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8013,7 +8128,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F155">
@@ -8023,14 +8138,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I155">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L155">
@@ -8040,7 +8160,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8060,7 +8180,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F156">
@@ -8070,14 +8190,19 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I156">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L156">
@@ -8087,7 +8212,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8107,7 +8232,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F157">
@@ -8117,19 +8242,14 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I157">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L157">
@@ -8139,7 +8259,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8154,12 +8274,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F158">
@@ -8169,19 +8289,14 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I158">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L158">
@@ -8191,7 +8306,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8206,12 +8321,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F159">
@@ -8221,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="I159">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -8233,7 +8348,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L159">
@@ -8243,7 +8358,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8258,12 +8373,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F160">
@@ -8273,19 +8388,19 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I160">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L160">
@@ -8295,7 +8410,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8310,12 +8425,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F161">
@@ -8325,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I161">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -8337,7 +8452,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L161">
@@ -8347,7 +8462,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8362,12 +8477,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F162">
@@ -8377,19 +8492,19 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I162">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L162">
@@ -8399,7 +8514,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8414,12 +8529,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F163">
@@ -8429,10 +8544,10 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I163">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -8441,7 +8556,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L163">
@@ -8451,7 +8566,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8466,12 +8581,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F164">
@@ -8481,10 +8596,10 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="I164">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -8493,7 +8608,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L164">
@@ -8503,7 +8618,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8518,12 +8633,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F165">
@@ -8533,10 +8648,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I165">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8545,7 +8660,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L165">
@@ -8555,7 +8670,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8570,12 +8685,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F166">
@@ -8585,19 +8700,19 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I166">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L166">
@@ -8607,7 +8722,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8622,12 +8737,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F167">
@@ -8637,19 +8752,19 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I167">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L167">
@@ -8659,7 +8774,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8674,12 +8789,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F168">
@@ -8689,19 +8804,19 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I168">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L168">
@@ -8711,7 +8826,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8726,12 +8841,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F169">
@@ -8741,19 +8856,19 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I169">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L169">
@@ -8763,7 +8878,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8778,12 +8893,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F170">
@@ -8793,19 +8908,19 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I170">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L170">
@@ -8815,7 +8930,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8830,12 +8945,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F171">
@@ -8845,10 +8960,10 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I171">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -8857,7 +8972,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L171">
@@ -8867,7 +8982,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8882,12 +8997,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F172">
@@ -8897,19 +9012,19 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I172">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L172">
@@ -8919,7 +9034,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8934,12 +9049,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F173">
@@ -8949,19 +9064,19 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I173">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L173">
@@ -8971,7 +9086,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8986,12 +9101,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F174">
@@ -9001,10 +9116,10 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I174">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -9013,7 +9128,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L174">
@@ -9023,7 +9138,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9038,12 +9153,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F175">
@@ -9053,19 +9168,19 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I175">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L175">
@@ -9075,7 +9190,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9090,12 +9205,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F176">
@@ -9105,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I176">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -9117,7 +9232,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L176">
@@ -9127,7 +9242,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9147,7 +9262,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F177">
@@ -9157,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="I177">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -9169,17 +9284,22 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L177">
         <v>0</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>SS8308</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9199,7 +9319,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F178">
@@ -9209,10 +9329,10 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="I178">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -9221,17 +9341,22 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L178">
         <v>0</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>SS8309</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9246,12 +9371,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F179">
@@ -9261,10 +9386,10 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I179">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -9273,7 +9398,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L179">
@@ -9283,7 +9408,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9298,12 +9423,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F180">
@@ -9313,19 +9438,14 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I180">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L180">
@@ -9335,7 +9455,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9350,12 +9470,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F181">
@@ -9365,19 +9485,14 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I181">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L181">
@@ -9387,7 +9502,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9402,12 +9517,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F182">
@@ -9417,19 +9532,14 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I182">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L182">
@@ -9439,7 +9549,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9454,12 +9564,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F183">
@@ -9469,19 +9579,14 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I183">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L183">
@@ -9491,7 +9596,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9506,12 +9611,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F184">
@@ -9521,19 +9626,14 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I184">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L184">
@@ -9543,7 +9643,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9558,12 +9658,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F185">
@@ -9573,19 +9673,14 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I185">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L185">
@@ -9595,7 +9690,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9610,12 +9705,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F186">
@@ -9625,19 +9720,14 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I186">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L186">
@@ -9647,7 +9737,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9662,12 +9752,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F187">
@@ -9677,19 +9767,14 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I187">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L187">
@@ -9699,7 +9784,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9714,12 +9799,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F188">
@@ -9729,19 +9814,14 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I188">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L188">
@@ -9751,7 +9831,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9766,12 +9846,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F189">
@@ -9781,34 +9861,24 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I189">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L189">
         <v>0</v>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9838,10 +9908,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I190">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -9855,7 +9925,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9870,12 +9940,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F191">
@@ -9885,34 +9955,24 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I191">
-        <v>277</v>
+        <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L191">
         <v>0</v>
-      </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>SS7877</t>
-        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9927,12 +9987,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F192">
@@ -9942,34 +10002,24 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="I192">
-        <v>257</v>
+        <v>-1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L192">
         <v>0</v>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>SS7878</t>
-        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9999,14 +10049,14 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I193">
         <v>-1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L193">
@@ -10016,7 +10066,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10046,14 +10096,14 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I194">
         <v>-1</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L194">
@@ -10063,7 +10113,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10103,6 +10153,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
       <c r="L195">
         <v>0</v>
       </c>
@@ -10110,7 +10165,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10140,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -10150,6 +10205,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L196">
         <v>0</v>
       </c>
@@ -10157,7 +10217,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10187,14 +10247,14 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I197">
         <v>-1</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L197">
@@ -10204,7 +10264,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10244,6 +10304,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L198">
         <v>0</v>
       </c>
@@ -10251,7 +10316,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10281,14 +10346,14 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I199">
         <v>-1</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L199">
@@ -10298,7 +10363,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10328,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10338,6 +10403,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L200">
         <v>0</v>
       </c>
@@ -10345,7 +10415,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10375,14 +10445,14 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I201">
         <v>-1</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L201">
@@ -10392,7 +10462,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10422,14 +10492,14 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I202">
         <v>-1</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L202">
@@ -10439,7 +10509,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10469,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10479,6 +10549,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L203">
         <v>0</v>
       </c>
@@ -10486,7 +10561,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10516,14 +10591,14 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I204">
         <v>-1</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L204">
@@ -10533,7 +10608,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10563,14 +10638,14 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I205">
         <v>-1</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L205">
@@ -10580,7 +10655,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10610,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I206">
         <v>-1</v>
@@ -10620,6 +10695,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L206">
         <v>0</v>
       </c>
@@ -10627,7 +10707,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10657,14 +10737,14 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I207">
         <v>-1</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L207">
@@ -10674,7 +10754,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10704,14 +10784,14 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I208">
         <v>-1</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L208">
@@ -10721,7 +10801,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10751,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I209">
         <v>-1</v>
@@ -10761,6 +10841,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L209">
         <v>0</v>
       </c>
@@ -10768,7 +10853,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10798,14 +10883,14 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I210">
         <v>-1</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L210">
@@ -10815,7 +10900,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10845,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I211">
         <v>-1</v>
@@ -10855,6 +10940,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L211">
         <v>0</v>
       </c>
@@ -10862,7 +10952,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10892,14 +10982,14 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I212">
         <v>-1</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L212">
@@ -10909,7 +10999,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10939,14 +11029,14 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I213">
         <v>-1</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L213">
@@ -10956,7 +11046,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10986,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I214">
         <v>-1</v>
@@ -10996,6 +11086,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L214">
         <v>0</v>
       </c>
@@ -11003,7 +11098,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11033,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I215">
         <v>-1</v>
@@ -11043,6 +11138,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
       <c r="L215">
         <v>0</v>
       </c>
@@ -11050,7 +11150,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11080,14 +11180,19 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I216">
         <v>-1</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L216">
@@ -11097,7 +11202,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11127,14 +11232,19 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I217">
         <v>-1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L217">
@@ -11144,7 +11254,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11174,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I218">
         <v>-1</v>
@@ -11191,7 +11301,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11221,14 +11331,19 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I219">
         <v>-1</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L219">
@@ -11238,7 +11353,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11268,14 +11383,19 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I220">
         <v>-1</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L220">
@@ -11285,7 +11405,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11315,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I221">
         <v>-1</v>
@@ -11332,7 +11452,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11362,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I222">
         <v>-1</v>
@@ -11379,7 +11499,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11409,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I223">
         <v>-1</v>
@@ -11426,7 +11546,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11456,14 +11576,19 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I224">
         <v>-1</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L224">
@@ -11473,7 +11598,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11503,14 +11628,19 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I225">
         <v>-1</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L225">
@@ -11520,7 +11650,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11550,14 +11680,19 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I226">
         <v>-1</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L226">
@@ -11567,7 +11702,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11597,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I227">
         <v>-1</v>
@@ -11614,7 +11749,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11644,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I228">
         <v>-1</v>
@@ -11661,7 +11796,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11691,14 +11826,19 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I229">
         <v>-1</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L229">
@@ -11708,7 +11848,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11738,7 +11878,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I230">
         <v>-1</v>
@@ -11755,7 +11895,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11785,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I231">
         <v>-1</v>
@@ -11802,7 +11942,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11832,14 +11972,19 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I232">
         <v>-1</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L232">
@@ -11849,7 +11994,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11879,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I233">
         <v>-1</v>
@@ -11896,7 +12041,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11926,14 +12071,19 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I234">
         <v>-1</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L234">
@@ -11943,7 +12093,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11973,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I235">
         <v>-1</v>
@@ -11990,7 +12140,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12020,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I236">
         <v>-1</v>
@@ -12037,7 +12187,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12067,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I237">
         <v>-1</v>
@@ -12084,7 +12234,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12121,7 +12271,12 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L238">
@@ -12131,7 +12286,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12161,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I239">
         <v>-1</v>
@@ -12178,7 +12333,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12215,7 +12370,12 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L240">
@@ -12225,7 +12385,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12255,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I241">
         <v>-1</v>
@@ -12266,241 +12426,6 @@
         </is>
       </c>
       <c r="L241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="H242">
-        <v>25</v>
-      </c>
-      <c r="I242">
-        <v>-1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="H243">
-        <v>28</v>
-      </c>
-      <c r="I243">
-        <v>-1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="H244">
-        <v>23</v>
-      </c>
-      <c r="I244">
-        <v>-1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>24</v>
-      </c>
-      <c r="I245">
-        <v>-1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>23</v>
-      </c>
-      <c r="I246">
-        <v>-1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L246">
         <v>0</v>
       </c>
     </row>
